--- a/Kirby-bin/animations/Mob/Normal/AnimationForm.xlsx
+++ b/Kirby-bin/animations/Mob/Normal/AnimationForm.xlsx
@@ -164,7 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -208,7 +208,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <f>CONCATENATE("animations/Mob/Normal", A2, ".csv")</f>
+        <f>CONCATENATE("animations/Mob/Normal/Normal", A2, ".csv")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="6">
-        <f>CONCATENATE("animations/Mob/Normal", A3, ".csv")</f>
+        <f>CONCATENATE("animations/Mob/Normal/Normal", A3, ".csv")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -557,7 +557,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="6">
-        <f>concatenate("animations/Mob/Normal", A4, ".csv")</f>
+        <f>concatenate("animations/Mob/Normal/Normal", A4, ".csv")</f>
       </c>
     </row>
   </sheetData>
